--- a/data/trans_dic/P15D$urgencias-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P15D$urgencias-Habitat-trans_dic.xlsx
@@ -673,7 +673,7 @@
         <v>0.620413326620918</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.5575688360352844</v>
+        <v>0.5575688360352843</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>0.7050607789982489</v>
@@ -685,7 +685,7 @@
         <v>0.6391300178209958</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>0.5229779689117868</v>
+        <v>0.5229779689117869</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>0.6172767824629246</v>
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.3469380368497907</v>
+        <v>0.3291869235029341</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.5594837403309006</v>
+        <v>0.545588525904358</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.4789065295535292</v>
+        <v>0.4775456440164317</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.4064521051099436</v>
+        <v>0.4008881092823496</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.4483378639411549</v>
+        <v>0.4524141174018623</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.4344268406411603</v>
+        <v>0.4402670573392587</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.4981794987267369</v>
+        <v>0.504225506726999</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.4079356898963193</v>
+        <v>0.4067001915849613</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.4575829988009316</v>
+        <v>0.4535189938261074</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.5243778408223702</v>
+        <v>0.5370679354357887</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.5312807931682613</v>
+        <v>0.5253056351702623</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.4462344954946798</v>
+        <v>0.4454788250436677</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.7582355062961159</v>
+        <v>0.7709071627141344</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.7901157124154715</v>
+        <v>0.789102757590771</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.7580159970924272</v>
+        <v>0.7566262579808067</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.7044390368859113</v>
+        <v>0.7130419031479359</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.8858368102742077</v>
+        <v>0.8860201127922244</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.7147791473607681</v>
+        <v>0.7260809084844755</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.7751052404344561</v>
+        <v>0.7737331880920411</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.6278344212666872</v>
+        <v>0.6295350954568467</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.7678588299450784</v>
+        <v>0.7678641277121507</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.7156581070624373</v>
+        <v>0.7111092171371125</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.7238358938321761</v>
+        <v>0.7285001703064623</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.6367857829330191</v>
+        <v>0.6414331820567648</v>
       </c>
     </row>
     <row r="7">
@@ -809,7 +809,7 @@
         <v>0.5720250197585537</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.5420963047336274</v>
+        <v>0.5420963047336272</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>0.5863812603125557</v>
@@ -833,7 +833,7 @@
         <v>0.5555315469424885</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>0.5188651459344372</v>
+        <v>0.5188651459344371</v>
       </c>
     </row>
     <row r="8">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.4047991846969327</v>
+        <v>0.3964185932630587</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.5239812584435171</v>
+        <v>0.5205471293231962</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.4394787890375061</v>
+        <v>0.4334732538984316</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.3946690233409298</v>
+        <v>0.3989801970921869</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.3878379816977863</v>
+        <v>0.393492021755702</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.4127101005497018</v>
+        <v>0.4123812844049579</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.3780413801261433</v>
+        <v>0.3771925281942605</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.3645790959735991</v>
+        <v>0.3582271602021236</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.4373706993230138</v>
+        <v>0.4443399533534982</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.5067917669474344</v>
+        <v>0.4939503097520966</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.4543179088965469</v>
+        <v>0.4524793333178775</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.4199414819626252</v>
+        <v>0.4222191643934956</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.7029029100025072</v>
+        <v>0.7342968983162256</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.7518282276170321</v>
+        <v>0.7402257829944274</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.7047088440618005</v>
+        <v>0.6954860595098813</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.6776115427498657</v>
+        <v>0.6749613526529947</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.7523701291225008</v>
+        <v>0.7605141829605679</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.6465231959017668</v>
+        <v>0.6421536515313699</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.6710354573646166</v>
+        <v>0.6923067659305587</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.6159201301448038</v>
+        <v>0.6164345372122321</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.6712716878708598</v>
+        <v>0.6789425334592868</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.6714097587771981</v>
+        <v>0.6653481789754323</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.6540730244143256</v>
+        <v>0.6521492226998143</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.613855263622638</v>
+        <v>0.6087404866488814</v>
       </c>
     </row>
     <row r="10">
@@ -969,7 +969,7 @@
         <v>0.6674934501576216</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0.5794063045907056</v>
+        <v>0.5794063045907055</v>
       </c>
     </row>
     <row r="11">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.03948849322747008</v>
+        <v>0.03856138678896213</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.4500535601381845</v>
+        <v>0.4320516576300205</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.4980571275297996</v>
+        <v>0.4942260689402679</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.4553158277404076</v>
+        <v>0.4403718881925816</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.5617837600180322</v>
+        <v>0.5774255242864265</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.5018960948311137</v>
+        <v>0.5108324285834764</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.4752076190163974</v>
+        <v>0.4723526557943396</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.408812075580939</v>
+        <v>0.4118763444988368</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.3179890093172881</v>
+        <v>0.3111931084947521</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.5252319716507142</v>
+        <v>0.5125325055405358</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.5510213750583609</v>
+        <v>0.5482538314770394</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.46786601680856</v>
+        <v>0.4714397692593369</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.3218556948906</v>
+        <v>0.3566156182212713</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.7055713272668807</v>
+        <v>0.708584596429058</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.8124368263627266</v>
+        <v>0.8088963118918693</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.7989703583961522</v>
+        <v>0.7977216195243538</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.8946330247154786</v>
+        <v>0.9128825216300538</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.7629858698965959</v>
+        <v>0.7700750004242227</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.8240184828093339</v>
+        <v>0.8319454796980886</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.6463363868952691</v>
+        <v>0.6664670805310964</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.6065616633679424</v>
+        <v>0.6135565510123588</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.7152121987564936</v>
+        <v>0.7064502549419263</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.7738756804578226</v>
+        <v>0.774718458355857</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.6765158168175616</v>
+        <v>0.686264328836533</v>
       </c>
     </row>
     <row r="13">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.341889320580728</v>
+        <v>0.3187281004684609</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.3652945849783578</v>
+        <v>0.3588203616493965</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.4684088292373826</v>
+        <v>0.4619837736184533</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.5315818376924938</v>
+        <v>0.5277783250658939</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.3558398099448505</v>
+        <v>0.3552120456869137</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.355626719927746</v>
+        <v>0.3565740450677298</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.6084979482214611</v>
+        <v>0.620599082180477</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.4325202982081366</v>
+        <v>0.4207125121874091</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.3952465325198691</v>
+        <v>0.3935657293204863</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.3919335241912226</v>
+        <v>0.406635254977282</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.5763388250432288</v>
+        <v>0.5702045993880409</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.5178334912537492</v>
+        <v>0.5159153625597381</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.6760701588417262</v>
+        <v>0.6605164601759607</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.576279241010709</v>
+        <v>0.5760188265400666</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.7062090232343214</v>
+        <v>0.7099087647607106</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.7849106062974095</v>
+        <v>0.7805534906251079</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.7754426886256048</v>
+        <v>0.786114279911148</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.6009297465048631</v>
+        <v>0.6026007212893788</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.8404350248759569</v>
+        <v>0.8554584923532852</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.6222344787160796</v>
+        <v>0.6157880336158612</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.6778402228554313</v>
+        <v>0.6619691053261717</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.5570321726283598</v>
+        <v>0.5632383656727238</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.751735283925157</v>
+        <v>0.7566680420815927</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.6680237750573974</v>
+        <v>0.6737742622476184</v>
       </c>
     </row>
     <row r="16">
@@ -1217,7 +1217,7 @@
         <v>0.6063818797338738</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.5986508241173486</v>
+        <v>0.5986508241173487</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>0.6489744523220928</v>
@@ -1229,7 +1229,7 @@
         <v>0.6500861036753899</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>0.5173194707825806</v>
+        <v>0.5173194707825804</v>
       </c>
       <c r="K16" s="5" t="n">
         <v>0.5430698463968071</v>
@@ -1241,7 +1241,7 @@
         <v>0.6277089854221737</v>
       </c>
       <c r="N16" s="5" t="n">
-        <v>0.5569840114204124</v>
+        <v>0.5569840114204125</v>
       </c>
     </row>
     <row r="17">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.3768428770374856</v>
+        <v>0.371205066504221</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.5212754344707771</v>
+        <v>0.523833856203814</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.524311462102766</v>
+        <v>0.5445165667130176</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.5300567223033462</v>
+        <v>0.5249042444834812</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.5477534266758802</v>
+        <v>0.5442485278049736</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.4912829525620363</v>
+        <v>0.4935502705324988</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.5825148803480666</v>
+        <v>0.5711940730056578</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.4621661712979104</v>
+        <v>0.4589487915012882</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.4697622848356307</v>
+        <v>0.474900059923738</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.5255218581946692</v>
+        <v>0.5242585808434899</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.5782197415127176</v>
+        <v>0.5765086778659047</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.5084816416038828</v>
+        <v>0.5083893107531646</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.5507816396693321</v>
+        <v>0.5538676501407658</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.6434830684548101</v>
+        <v>0.6456117542444992</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.6721329609166048</v>
+        <v>0.6720927707870871</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.6698773122892978</v>
+        <v>0.6713859851094178</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.7449623015142078</v>
+        <v>0.7433971074985669</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.6155883024107116</v>
+        <v>0.6156886981798232</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.7214831630641856</v>
+        <v>0.7147024799837746</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.5813431349736726</v>
+        <v>0.5726842390595484</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.6118178842034363</v>
+        <v>0.615520220945219</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.6134758129920901</v>
+        <v>0.6127045430043535</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.6777400866226355</v>
+        <v>0.6770091137982209</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.5974611030245389</v>
+        <v>0.6021244847676025</v>
       </c>
     </row>
     <row r="19">
@@ -1600,40 +1600,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>7904</v>
+        <v>7500</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>33022</v>
+        <v>32202</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>19926</v>
+        <v>19869</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>20197</v>
+        <v>19921</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>7114</v>
+        <v>7178</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>22797</v>
+        <v>23103</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>24249</v>
+        <v>24543</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>19141</v>
+        <v>19083</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>17685</v>
+        <v>17528</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>58467</v>
+        <v>59882</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>47966</v>
+        <v>47426</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>43112</v>
+        <v>43039</v>
       </c>
     </row>
     <row r="7">
@@ -1644,40 +1644,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>17274</v>
+        <v>17563</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>46634</v>
+        <v>46574</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>31539</v>
+        <v>31481</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>35004</v>
+        <v>35432</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>14056</v>
+        <v>14058</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>37509</v>
+        <v>38102</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>37728</v>
+        <v>37661</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>29459</v>
+        <v>29539</v>
       </c>
       <c r="K7" s="6" t="n">
         <v>29677</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>79794</v>
+        <v>79287</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>65350</v>
+        <v>65771</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>61521</v>
+        <v>61970</v>
       </c>
     </row>
     <row r="8">
@@ -1780,40 +1780,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>17317</v>
+        <v>16959</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>41435</v>
+        <v>41164</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>26577</v>
+        <v>26214</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>29527</v>
+        <v>29849</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>11687</v>
+        <v>11858</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>29938</v>
+        <v>29914</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>17924</v>
+        <v>17883</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>22897</v>
+        <v>22498</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>31891</v>
+        <v>32399</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>76838</v>
+        <v>74891</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>49015</v>
+        <v>48817</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>57792</v>
+        <v>58105</v>
       </c>
     </row>
     <row r="11">
@@ -1824,40 +1824,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>30070</v>
+        <v>31413</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>59453</v>
+        <v>58536</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>42617</v>
+        <v>42060</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>50695</v>
+        <v>50497</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>22673</v>
+        <v>22918</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>46898</v>
+        <v>46581</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>31815</v>
+        <v>32824</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>38682</v>
+        <v>38715</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>48946</v>
+        <v>49505</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>101797</v>
+        <v>100878</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>70566</v>
+        <v>70358</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>84478</v>
+        <v>83774</v>
       </c>
     </row>
     <row r="12">
@@ -1960,40 +1960,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>940</v>
+        <v>918</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>25861</v>
+        <v>24827</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>18262</v>
+        <v>18121</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>15013</v>
+        <v>14520</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>13547</v>
+        <v>13924</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>28631</v>
+        <v>29140</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>14998</v>
+        <v>14908</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>20228</v>
+        <v>20380</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>15238</v>
+        <v>14912</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>60142</v>
+        <v>58688</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>37595</v>
+        <v>37406</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>38576</v>
+        <v>38871</v>
       </c>
     </row>
     <row r="15">
@@ -2004,40 +2004,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>7662</v>
+        <v>8490</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>40544</v>
+        <v>40717</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>29789</v>
+        <v>29659</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>26344</v>
+        <v>26302</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>21573</v>
+        <v>22013</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>43525</v>
+        <v>43929</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>26007</v>
+        <v>26257</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>31981</v>
+        <v>32977</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>29066</v>
+        <v>29402</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>81896</v>
+        <v>80893</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>52799</v>
+        <v>52857</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>55780</v>
+        <v>56584</v>
       </c>
     </row>
     <row r="16">
@@ -2140,40 +2140,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>11525</v>
+        <v>10744</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>32222</v>
+        <v>31651</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>28520</v>
+        <v>28128</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>33780</v>
+        <v>33538</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>8429</v>
+        <v>8415</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>25706</v>
+        <v>25775</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>38103</v>
+        <v>38861</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>31562</v>
+        <v>30701</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>22687</v>
+        <v>22590</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>62902</v>
+        <v>65262</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>71180</v>
+        <v>70423</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>70695</v>
+        <v>70433</v>
       </c>
     </row>
     <row r="19">
@@ -2184,40 +2184,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>22790</v>
+        <v>22266</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>50832</v>
+        <v>50809</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>42998</v>
+        <v>43224</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>49878</v>
+        <v>49601</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>18369</v>
+        <v>18622</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>43438</v>
+        <v>43558</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>52626</v>
+        <v>53567</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>45406</v>
+        <v>44936</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>38907</v>
+        <v>37996</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>89399</v>
+        <v>90395</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>92842</v>
+        <v>93452</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>91199</v>
+        <v>91984</v>
       </c>
     </row>
     <row r="20">
@@ -2320,40 +2320,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>46381</v>
+        <v>45687</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>147922</v>
+        <v>148648</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>104670</v>
+        <v>108704</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>117155</v>
+        <v>116016</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>51383</v>
+        <v>51054</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>124955</v>
+        <v>125532</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>110833</v>
+        <v>108679</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>107306</v>
+        <v>106559</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>101883</v>
+        <v>102998</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>282790</v>
+        <v>282110</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>225448</v>
+        <v>224781</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>230445</v>
+        <v>230404</v>
       </c>
     </row>
     <row r="23">
@@ -2364,40 +2364,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>67789</v>
+        <v>68168</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>182601</v>
+        <v>183205</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>134181</v>
+        <v>134173</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>148058</v>
+        <v>148392</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>69882</v>
+        <v>69735</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>156571</v>
+        <v>156597</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>137274</v>
+        <v>135984</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>134976</v>
+        <v>132966</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>132693</v>
+        <v>133496</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>330119</v>
+        <v>329704</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>264251</v>
+        <v>263966</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>270771</v>
+        <v>272885</v>
       </c>
     </row>
     <row r="24">
